--- a/biology/Botanique/Tillandsia_pavonii/Tillandsia_pavonii.xlsx
+++ b/biology/Botanique/Tillandsia_pavonii/Tillandsia_pavonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia pavonii Mez est une plante de la famille des Bromeliaceae.
 Le terme pavonii est une dédicace au botaniste espagnol J.A. Pavón, collecteur de la plante
@@ -512,13 +524,15 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia pavonii Mez in C.DC., Monogr. Phan. 9: 774, n° 130 (1896)
-Diagnose originale[1] :
+Diagnose originale :
 « inflorescentia bipinnatim panniculata[sic] ; spicis laxiusculis subpinnatis, 10-v. plurifloris, bracteas primarias longe superantibus ; bracteolis florigeris dorso laevibus, sepala superantibus ; floribus strictissime erecti ; sepalis antico libero, posticis binis alte connatis ; petalis stamina superantibus ; stylo quam stamina paullo breviore. »
-Type : leg. Pavón ; « Peruvia, loco ignoto » ; Herb. Paris[1].
-Nb : le type de ce taxon se limite à une inflorescence ; Mez[1] a décrit ce taxon sans en connaître l'aspect végétatif.
+Type : leg. Pavón ; « Peruvia, loco ignoto » ; Herb. Paris.
+Nb : le type de ce taxon se limite à une inflorescence ; Mez a décrit ce taxon sans en connaître l'aspect végétatif.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(aucune)</t>
         </is>
@@ -578,6 +594,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,7 +621,9 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Biotype : plante vivace herbacée.
 Habitat : ?
@@ -635,10 +655,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amérique du sud :
- Pérou[1]</t>
+ Pérou</t>
         </is>
       </c>
     </row>
@@ -666,7 +688,9 @@
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia pavonii est une plante mal connue qui ne semble pas avoir été introduite en culture, tout du moins sous ce nom.
 </t>
